--- a/_Feedback/PlayTest_Feedback.xlsx
+++ b/_Feedback/PlayTest_Feedback.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="137">
   <si>
     <t>Problem</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Das ist nicht gewollt und beist sich extrem mit dem aktuellen Level-Aufbau; Wenn es den Spielern gefällt, hätte man vorher eventuell doch eine Isometrische oder Feste Perspektive wählen sollen; Es würde keinen großen Vorteil bringen, aktuell beide Varianten als Optionen anzubieten</t>
   </si>
   <si>
-    <t>Animationen werden nicht immer abgespielt (Kisten in Labor, Regalbretter in Büro)</t>
-  </si>
-  <si>
     <t>Man kann durch verschiedene Collider rutschen / Collider fehlen (u.a. Türrahmen)</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>Zu wenige Schatten</t>
   </si>
   <si>
-    <t>OP-Saal wirkt zu dreckig</t>
-  </si>
-  <si>
     <t>Lighting</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>Kisten sind zu offensichtlich als Sprunghilfen platziert</t>
   </si>
   <si>
-    <t>Kann eigentlich vernachlässigt werden</t>
-  </si>
-  <si>
     <t>Wandtextur wirkt nicht seamless genug</t>
   </si>
   <si>
@@ -220,9 +211,6 @@
   </si>
   <si>
     <t>Icon das anzeigt, dass man das Control Item eingesammelt hat fehlt</t>
-  </si>
-  <si>
-    <t>Muss noch implementiert werden</t>
   </si>
   <si>
     <t>Quick-Time-Event UI ist nicht sichtbar genug</t>
@@ -245,9 +233,6 @@
     </r>
   </si>
   <si>
-    <t>Lautstärke der einzelnen Sounds balancen</t>
-  </si>
-  <si>
     <t>Sound</t>
   </si>
   <si>
@@ -281,24 +266,12 @@
     <t>Wenn der Spieler im Labor stirbt startet er nicht immer beim Fetish</t>
   </si>
   <si>
-    <t>Evtl muss dafür die Spielereingabe für diesen Moment gesperrt werden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wechsel zwischen Masken </t>
-  </si>
-  <si>
-    <t>Ist aktuell in Ordnun, besser wäre es, wenn man per Steuerkreuz nach "links" oder "rechts" wechseln könnte</t>
-  </si>
-  <si>
     <t>Die Outlines beim Control Item sind beim Blick durch die Maske zu dick</t>
   </si>
   <si>
     <t>Man kann erneut in den ersten Guard im Labor wechseln, nachdem man mit ihm die Tür geöffnet hat</t>
   </si>
   <si>
-    <t>Evtl kann man im Büro signalisieren, dass der Guard danach nicht mehr betreten kann, indem man die Oulines und VFX vom Fetish entfernt, dieser quasi "erlischt"</t>
-  </si>
-  <si>
     <t>Die Türen drehen sich nicht an den Schanieren</t>
   </si>
   <si>
@@ -308,9 +281,6 @@
     <t>Die Türen haben noch keine Textur</t>
   </si>
   <si>
-    <t>Muss evtl nur noch eingefügt werden?</t>
-  </si>
-  <si>
     <t>Einige Assets sind im Level fehlerhaft platziert</t>
   </si>
   <si>
@@ -359,9 +329,6 @@
     <t>Wandtextur an Türrahmen und Fenstern fehlerhaft</t>
   </si>
   <si>
-    <t>Andere Farbe entsprechend Signalfarbe?</t>
-  </si>
-  <si>
     <t>Farbliche Unterscheidung von interagierbaren Objekten nicht gegeben</t>
   </si>
   <si>
@@ -380,12 +347,6 @@
     <t>Siehe Signs&amp;Feedback</t>
   </si>
   <si>
-    <t>Musik bricht ab</t>
-  </si>
-  <si>
-    <t>Veränderte Musik (Bongo-Trommeln)</t>
-  </si>
-  <si>
     <t>Lou schafft unordnung</t>
   </si>
   <si>
@@ -396,6 +357,87 @@
   </si>
   <si>
     <t>Schreibtischlampen sind nicht hell genug</t>
+  </si>
+  <si>
+    <t>Muss evtl nur noch eingefügt werden? (Lou)</t>
+  </si>
+  <si>
+    <t>Szenen werden separat bearbeitet</t>
+  </si>
+  <si>
+    <t>Lou schon Texturen fertig?</t>
+  </si>
+  <si>
+    <t>Artjom</t>
+  </si>
+  <si>
+    <t>Veränderte Musik (Bongo-Trommeln); Cone einblenden</t>
+  </si>
+  <si>
+    <t>Musik bricht ab; 'HmmHmm'-Sound</t>
+  </si>
+  <si>
+    <t>Prüfen nachdem Lighting final ist</t>
+  </si>
+  <si>
+    <t>Jeweiliges Control item als icon einblenden</t>
+  </si>
+  <si>
+    <t>Muss entsprechend hervorgehoben werden</t>
+  </si>
+  <si>
+    <t>Dicke wird verringert</t>
+  </si>
+  <si>
+    <t>Auklappen?</t>
+  </si>
+  <si>
+    <t>Skalierung/Position anpassen</t>
+  </si>
+  <si>
+    <t>Beschleunigt Schritte wenn er Spieler entdeckt</t>
+  </si>
+  <si>
+    <t>Scope?</t>
+  </si>
+  <si>
+    <t>Lighting wird nochmal überarbeitet</t>
+  </si>
+  <si>
+    <t>OP-Saal wirkt nicht steril genug</t>
+  </si>
+  <si>
+    <t>Aufgrund von Haluks Feedback irrelevant</t>
+  </si>
+  <si>
+    <t>Unordentlicher platzieren, Alternative (Schemel) Sprunghilfe</t>
+  </si>
+  <si>
+    <t>Ist aktuell in Ordnung, besser wäre es, wenn man per Steuerkreuz nach "links" oder "rechts" wechseln könnte</t>
+  </si>
+  <si>
+    <t>Wechsel zwischen Masken (Controls)</t>
+  </si>
+  <si>
+    <t>Lauf-Animation werden nicht immer abgespielt (Kisten in Labor, Regalbretter in Büro)</t>
+  </si>
+  <si>
+    <t>Tag nicht richtig gesetzt?</t>
+  </si>
+  <si>
+    <t>Kisten/Boxen nicht als Ground getagged</t>
+  </si>
+  <si>
+    <t>Lautstärke der einzelnen Sounds balancen (Unterschied SFX &amp; Music)</t>
+  </si>
+  <si>
+    <t>Level wird zurückgesetzt; Spieler startet bei Tür - nicht bei Fetish</t>
+  </si>
+  <si>
+    <t>Evtl kann man im Büro signalisieren, dass der Guard danach nicht mehr betreten kann, indem man die Outlines und VFX vom Fetish entfernt/abschwächen, dieser quasi "erlischt"; Außerdem Outlines von Guard entfernen</t>
+  </si>
+  <si>
+    <t>Wird überarbeitet</t>
   </si>
 </sst>
 </file>
@@ -481,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -519,11 +561,35 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -542,27 +608,6 @@
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -574,18 +619,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:F65" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:F65" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F65"/>
   <sortState ref="A2:F64">
     <sortCondition ref="E1:E64"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" name="Problem" dataDxfId="6"/>
-    <tableColumn id="3" name="Kategorie" dataDxfId="5"/>
-    <tableColumn id="4" name="Verantwortlich" dataDxfId="4"/>
-    <tableColumn id="5" name="Prio" dataDxfId="3"/>
-    <tableColumn id="6" name="Kommentar" dataDxfId="2"/>
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="Problem" dataDxfId="4"/>
+    <tableColumn id="3" name="Kategorie" dataDxfId="3"/>
+    <tableColumn id="4" name="Verantwortlich" dataDxfId="2"/>
+    <tableColumn id="5" name="Prio" dataDxfId="1"/>
+    <tableColumn id="6" name="Kommentar" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -878,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +941,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -948,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -968,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1008,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1028,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1039,7 +1084,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>5</v>
@@ -1068,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,10 +1138,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>4</v>
@@ -1110,10 +1155,10 @@
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>4</v>
@@ -1122,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1130,10 +1175,10 @@
         <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>4</v>
@@ -1142,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,7 +1195,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -1162,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1170,10 +1215,10 @@
         <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>4</v>
@@ -1187,10 +1232,10 @@
         <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>4</v>
@@ -1199,18 +1244,18 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>4</v>
@@ -1218,16 +1263,19 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>4</v>
@@ -1235,8 +1283,11 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -1253,7 +1304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -1261,7 +1312,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>5</v>
@@ -1273,7 +1324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>6</v>
       </c>
@@ -1281,10 +1332,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
@@ -1292,16 +1343,19 @@
       <c r="F21" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>5</v>
@@ -1309,11 +1363,11 @@
       <c r="E22" s="2">
         <v>2</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>11</v>
       </c>
@@ -1330,7 +1384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>17</v>
       </c>
@@ -1347,10 +1401,10 @@
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>18</v>
       </c>
@@ -1367,35 +1421,38 @@
         <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>4</v>
@@ -1403,19 +1460,19 @@
       <c r="E27" s="2">
         <v>2</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F27" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>6</v>
@@ -1423,16 +1480,16 @@
       <c r="E28" s="2">
         <v>2</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>40</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
@@ -1444,15 +1501,15 @@
         <v>2</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
@@ -1464,15 +1521,15 @@
         <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
@@ -1483,16 +1540,16 @@
       <c r="E31" s="2">
         <v>2</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
@@ -1502,6 +1559,9 @@
       </c>
       <c r="E32" s="2">
         <v>2</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1509,16 +1569,19 @@
         <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,16 +1589,19 @@
         <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1543,16 +1609,19 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1580,13 +1649,16 @@
         <v>22</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="2">
         <v>3</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1605,7 +1677,7 @@
       <c r="E38" s="2">
         <v>3</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1614,16 +1686,19 @@
         <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E39" s="2">
         <v>3</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,16 +1706,19 @@
         <v>29</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="2">
         <v>3</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1648,16 +1726,16 @@
         <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E41" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1665,10 +1743,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>6</v>
@@ -1676,8 +1754,8 @@
       <c r="E42" s="2">
         <v>3</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>66</v>
+      <c r="F42" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1685,7 +1763,7 @@
         <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
@@ -1697,7 +1775,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,19 +1783,19 @@
         <v>31</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1725,10 +1803,10 @@
         <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>4</v>
@@ -1737,7 +1815,7 @@
         <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1745,10 +1823,10 @@
         <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>5</v>
@@ -1757,7 +1835,7 @@
         <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1765,10 +1843,10 @@
         <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>5</v>
@@ -1777,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1785,13 +1863,19 @@
         <v>21</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>5</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1799,13 +1883,16 @@
         <v>22</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>5</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1813,13 +1900,19 @@
         <v>23</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>5</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1827,13 +1920,16 @@
         <v>24</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>5</v>
+      </c>
+      <c r="E51" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,7 +1937,7 @@
         <v>25</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
@@ -1849,8 +1945,11 @@
       <c r="D52" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="E52" s="2">
+        <v>3</v>
+      </c>
       <c r="F52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1858,13 +1957,16 @@
         <v>26</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>5</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1872,7 +1974,7 @@
         <v>42</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -1880,8 +1982,11 @@
       <c r="D54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>71</v>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1889,13 +1994,16 @@
         <v>43</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1903,16 +2011,19 @@
         <v>44</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+      <c r="E56" s="13">
+        <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1920,16 +2031,19 @@
         <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1937,7 +2051,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -1945,25 +2059,31 @@
       <c r="D58" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="E58" s="2">
+        <v>2</v>
+      </c>
       <c r="F58" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>52</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>89</v>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1971,7 +2091,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -1979,8 +2099,11 @@
       <c r="D60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>91</v>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1988,13 +2111,19 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>5</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2002,7 +2131,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -2010,8 +2139,11 @@
       <c r="D62" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="E62" s="2">
+        <v>2</v>
+      </c>
       <c r="F62" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2019,13 +2151,16 @@
         <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>5</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2033,7 +2168,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -2041,8 +2176,11 @@
       <c r="D64" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
       <c r="F64" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2050,16 +2188,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>122</v>
+      <c r="E65" s="2">
+        <v>2</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/_Feedback/PlayTest_Feedback.xlsx
+++ b/_Feedback/PlayTest_Feedback.xlsx
@@ -620,9 +620,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:F65" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F65"/>
-  <sortState ref="A2:F64">
-    <sortCondition ref="E1:E64"/>
+  <autoFilter ref="A1:F65">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Programming"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A37:F62">
+    <sortCondition ref="E1:E65"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="5"/>
@@ -925,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,437 +965,446 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>47</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>54</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>55</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>63</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>97</v>
+      <c r="D21" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>17</v>
+      <c r="F21" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="G21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>11</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>5</v>
+      <c r="D23" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
@@ -1398,18 +1413,18 @@
         <v>6</v>
       </c>
       <c r="E24" s="2">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>8</v>
@@ -1418,138 +1433,135 @@
         <v>6</v>
       </c>
       <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E26" s="2">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E27" s="2">
-        <v>2</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>5</v>
+      <c r="D29" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>4</v>
+      <c r="D30" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>4</v>
+      <c r="D31" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
@@ -1560,347 +1572,344 @@
       <c r="E32" s="2">
         <v>2</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>51</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>58</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="2">
-        <v>2</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>62</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>5</v>
+      <c r="D35" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E35" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E36" s="2">
         <v>3</v>
       </c>
+      <c r="F36" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>15</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="2">
-        <v>3</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>20</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D38" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="2">
-        <v>3</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="E39" s="2">
-        <v>3</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="E40" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="E41" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
+        <v>26</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="E42" s="2">
-        <v>3</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="E43" s="2">
-        <v>3</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="E44" s="2">
-        <v>2</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="E45" s="2">
-        <v>4</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="2">
-        <v>4</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E48" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E49" s="2">
         <v>2</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -1909,55 +1918,55 @@
         <v>5</v>
       </c>
       <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="2">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E52" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
@@ -1966,15 +1975,15 @@
         <v>5</v>
       </c>
       <c r="E53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -1983,75 +1992,75 @@
         <v>5</v>
       </c>
       <c r="E54" s="2">
-        <v>1</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>98</v>
+        <v>9</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="E55" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="13">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>98</v>
+        <v>9</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="E57" s="2">
         <v>3</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -2060,58 +2069,58 @@
         <v>5</v>
       </c>
       <c r="E58" s="2">
-        <v>2</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>50</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>53</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D60" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E60" s="2">
-        <v>1</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -2120,87 +2129,84 @@
         <v>5</v>
       </c>
       <c r="E61" s="2">
-        <v>2</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>5</v>
+        <v>68</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="2">
+        <v>68</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="13">
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>4</v>
+        <v>68</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="E65" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
